--- a/Excel/ActiveSkillConfig@cs.xlsx
+++ b/Excel/ActiveSkillConfig@cs.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -98,10 +98,28 @@
     <t>string</t>
   </si>
   <si>
+    <t>GameAssets/Chess/Effects/Projectile 13 Variant 1.prefab</t>
+  </si>
+  <si>
+    <t>GameAssets/Chess/Effects/Projectile 2 leidian.prefab</t>
+  </si>
+  <si>
+    <t>GameAssets/Chess/Effects/Projectile 13 Variant.prefab</t>
+  </si>
+  <si>
+    <t>GameAssets/Chess/Effects/Projectile 8.prefab</t>
+  </si>
+  <si>
     <t>GameAssets/Chess/Effects/Projectile 13 arraw.prefab</t>
   </si>
   <si>
-    <t>GameAssets/Chess/Effects/Projectile 2 leidian.prefab</t>
+    <t>GameAssets/Chess/Effects/Projectile 4.prefab</t>
+  </si>
+  <si>
+    <t>GameAssets/Chess/Effects/Projectile 13 Variant 2.prefab</t>
+  </si>
+  <si>
+    <t>GameAssets/Chess/Effects/Projectile 14.prefab</t>
   </si>
   <si>
     <t>`</t>
@@ -1116,8 +1134,8 @@
   <sheetPr/>
   <dimension ref="C2:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -1260,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>23</v>
@@ -1287,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" s="6"/>
     </row>
@@ -1314,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>24</v>
@@ -1343,10 +1361,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="14.4" spans="3:11">
@@ -1370,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" s="6"/>
     </row>
@@ -1397,10 +1415,10 @@
         <v>1</v>
       </c>
       <c r="J11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="14.4" spans="3:11">
@@ -1413,14 +1431,24 @@
       <c r="E12" s="2">
         <v>150</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="2"/>
+      <c r="F12" s="2">
+        <v>1333</v>
+      </c>
+      <c r="G12" s="6">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2">
+        <v>12</v>
+      </c>
       <c r="I12" s="1">
         <v>1</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="6"/>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" ht="14.4" spans="3:11">
       <c r="C13" s="1">
@@ -1432,13 +1460,19 @@
       <c r="E13" s="2">
         <v>180</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="6"/>
+      <c r="F13" s="2">
+        <v>1333</v>
+      </c>
+      <c r="G13" s="6">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2"/>
       <c r="I13" s="1">
         <v>1</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
       <c r="K13" s="6"/>
     </row>
     <row r="14" ht="14.4" spans="3:11">
@@ -1451,12 +1485,24 @@
       <c r="E14" s="2">
         <v>250</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="F14" s="2">
+        <v>1333</v>
+      </c>
+      <c r="G14" s="6">
+        <v>12</v>
+      </c>
+      <c r="H14" s="2">
+        <v>14</v>
+      </c>
       <c r="I14" s="1">
         <v>1</v>
       </c>
-      <c r="K14" s="6"/>
+      <c r="J14" s="1">
+        <v>3</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" ht="14.4" spans="3:11">
       <c r="C15" s="1">
@@ -1468,12 +1514,24 @@
       <c r="E15" s="2">
         <v>150</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="F15" s="2">
+        <v>1333</v>
+      </c>
+      <c r="G15" s="6">
+        <v>10</v>
+      </c>
+      <c r="H15" s="2">
+        <v>12</v>
+      </c>
       <c r="I15" s="1">
         <v>1</v>
       </c>
-      <c r="K15" s="6"/>
+      <c r="J15" s="1">
+        <v>3</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" ht="14.4" spans="3:11">
       <c r="C16" s="1">
@@ -1485,10 +1543,20 @@
       <c r="E16" s="2">
         <v>180</v>
       </c>
+      <c r="F16" s="2">
+        <v>1333</v>
+      </c>
+      <c r="G16" s="6">
+        <v>3</v>
+      </c>
+      <c r="H16" s="2"/>
       <c r="I16" s="1">
         <v>1</v>
       </c>
-      <c r="K16" s="2"/>
+      <c r="J16" s="1">
+        <v>3</v>
+      </c>
+      <c r="K16" s="6"/>
     </row>
     <row r="17" ht="14.4" spans="3:11">
       <c r="C17" s="1">
@@ -1500,10 +1568,24 @@
       <c r="E17" s="2">
         <v>250</v>
       </c>
+      <c r="F17" s="2">
+        <v>1333</v>
+      </c>
+      <c r="G17" s="6">
+        <v>12</v>
+      </c>
+      <c r="H17" s="2">
+        <v>14</v>
+      </c>
       <c r="I17" s="1">
         <v>1</v>
       </c>
-      <c r="K17" s="2"/>
+      <c r="J17" s="1">
+        <v>3</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" ht="14.4" spans="3:11">
       <c r="C18" s="7"/>
@@ -1514,7 +1596,7 @@
     </row>
     <row r="24" spans="11:11">
       <c r="K24" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/ActiveSkillConfig@cs.xlsx
+++ b/Excel/ActiveSkillConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26028" windowHeight="12684"/>
+    <workbookView windowWidth="21000" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>Id</t>
   </si>
@@ -59,6 +59,9 @@
     <t>击中物体特效</t>
   </si>
   <si>
+    <t>是否大招</t>
+  </si>
+  <si>
     <t>SkillType</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
     <t>hitEffect</t>
   </si>
   <si>
+    <t>isSuper</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -98,31 +104,58 @@
     <t>string</t>
   </si>
   <si>
-    <t>GameAssets/Chess/Effects/Projectile 13 Variant 1.prefab</t>
-  </si>
-  <si>
-    <t>GameAssets/Chess/Effects/Projectile 2 leidian.prefab</t>
-  </si>
-  <si>
-    <t>GameAssets/Chess/Effects/Projectile 13 Variant.prefab</t>
-  </si>
-  <si>
-    <t>GameAssets/Chess/Effects/Projectile 8.prefab</t>
-  </si>
-  <si>
-    <t>GameAssets/Chess/Effects/Projectile 13 arraw.prefab</t>
-  </si>
-  <si>
-    <t>GameAssets/Chess/Effects/Projectile 4.prefab</t>
-  </si>
-  <si>
-    <t>GameAssets/Chess/Effects/Projectile 13 Variant 2.prefab</t>
-  </si>
-  <si>
-    <t>GameAssets/Chess/Effects/Projectile 14.prefab</t>
-  </si>
-  <si>
-    <t>`</t>
+    <t>GameAssets/Chess/Effects/Arrow/Projectile 13 arrawY.prefab</t>
+  </si>
+  <si>
+    <t>GameAssets/Chess/Effects/Arrow/Hit 13 Y.prefab</t>
+  </si>
+  <si>
+    <t>GameAssets/Chess/Effects/Hit 14.prefab</t>
+  </si>
+  <si>
+    <t>GameAssets/Chess/Effects/Parti/Projectile 12.prefab</t>
+  </si>
+  <si>
+    <t>GameAssets/Chess/Effects/Parti/Hit 12.prefab</t>
+  </si>
+  <si>
+    <t>GameAssets/Chess/Effects/Arrow/Projectile 13 arrawG.prefab</t>
+  </si>
+  <si>
+    <t>GameAssets/Chess/Effects/Arrow/Hit 13 G.prefab</t>
+  </si>
+  <si>
+    <t>GameAssets/Chess/Effects/Hit 8.prefab</t>
+  </si>
+  <si>
+    <t>GameAssets/Chess/Effects/Parti/Projectile 4.prefab</t>
+  </si>
+  <si>
+    <t>GameAssets/Chess/Effects/Parti/Hit 4.prefab</t>
+  </si>
+  <si>
+    <t>GameAssets/Chess/Effects/Arrow/Projectile 13 arrawR.prefab</t>
+  </si>
+  <si>
+    <t>GameAssets/Chess/Effects/Arrow/Hit 13 R.prefab</t>
+  </si>
+  <si>
+    <t>GameAssets/Chess/Effects/Parti/Projectile 2 leidian.prefab</t>
+  </si>
+  <si>
+    <t>GameAssets/Chess/Effects/Parti/Hit 2.prefab</t>
+  </si>
+  <si>
+    <t>GameAssets/Chess/Effects/Arrow/Projectile 13 arrawP.prefab</t>
+  </si>
+  <si>
+    <t>GameAssets/Chess/Effects/Arrow/Hit 13 P.prefab</t>
+  </si>
+  <si>
+    <t>GameAssets/Chess/Effects/Parti/Projectile 10.prefab</t>
+  </si>
+  <si>
+    <t>GameAssets/Chess/Effects/Parti/Hit 10.prefab</t>
   </si>
 </sst>
 </file>
@@ -135,7 +168,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +343,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -766,7 +806,7 @@
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1132,26 +1172,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:L24"/>
+  <dimension ref="C2:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.87962962962963" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.15" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.8240740740741" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.8796296296296" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.8796296296296" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1296296296296" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="55.6851851851852" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5833333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="55.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="32.375" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1159,7 +1201,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="15.95" customHeight="1" spans="3:12">
+    <row r="3" ht="15.95" customHeight="1" spans="3:13">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1190,72 +1232,81 @@
       <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" ht="16.2" spans="3:12">
+      <c r="M3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="3:13">
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" ht="16.2" spans="3:12">
+        <v>19</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="3:13">
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="J5" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" ht="14.4" spans="3:11">
+        <v>24</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1269,7 +1320,7 @@
         <v>1333</v>
       </c>
       <c r="G6" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H6" s="2">
         <v>12</v>
@@ -1280,11 +1331,17 @@
       <c r="J6" s="1">
         <v>2</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" ht="14.4" spans="3:11">
+      <c r="K6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1292,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="F7" s="2">
         <v>1333</v>
@@ -1307,9 +1364,14 @@
       <c r="J7" s="1">
         <v>2</v>
       </c>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" ht="14.4" spans="3:11">
+      <c r="L7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1323,7 +1385,7 @@
         <v>1333</v>
       </c>
       <c r="G8" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H8" s="2">
         <v>14</v>
@@ -1334,11 +1396,17 @@
       <c r="J8" s="1">
         <v>2</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" spans="3:11">
+      <c r="K8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1352,7 +1420,7 @@
         <v>1333</v>
       </c>
       <c r="G9" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H9" s="2">
         <v>12</v>
@@ -1363,11 +1431,17 @@
       <c r="J9" s="1">
         <v>2</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" spans="3:11">
+      <c r="K9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1375,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="F10" s="2">
         <v>1333</v>
@@ -1390,9 +1464,14 @@
       <c r="J10" s="1">
         <v>2</v>
       </c>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" ht="14.4" spans="3:11">
+      <c r="L10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1406,7 +1485,7 @@
         <v>1333</v>
       </c>
       <c r="G11" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H11" s="2">
         <v>14</v>
@@ -1417,11 +1496,17 @@
       <c r="J11" s="1">
         <v>2</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" spans="3:11">
+      <c r="K11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -1435,7 +1520,7 @@
         <v>1333</v>
       </c>
       <c r="G12" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H12" s="2">
         <v>12</v>
@@ -1446,11 +1531,17 @@
       <c r="J12" s="1">
         <v>3</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" ht="14.4" spans="3:11">
+      <c r="K12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13">
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -1458,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="F13" s="2">
         <v>1333</v>
@@ -1473,14 +1564,19 @@
       <c r="J13" s="1">
         <v>3</v>
       </c>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" ht="14.4" spans="3:11">
+      <c r="L13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13">
       <c r="C14" s="1">
         <v>9</v>
       </c>
       <c r="D14" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2">
         <v>250</v>
@@ -1489,7 +1585,7 @@
         <v>1333</v>
       </c>
       <c r="G14" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H14" s="2">
         <v>14</v>
@@ -1500,11 +1596,17 @@
       <c r="J14" s="1">
         <v>3</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" ht="14.4" spans="3:11">
+      <c r="K14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -1518,7 +1620,7 @@
         <v>1333</v>
       </c>
       <c r="G15" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H15" s="2">
         <v>12</v>
@@ -1529,11 +1631,17 @@
       <c r="J15" s="1">
         <v>3</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" ht="14.4" spans="3:11">
+      <c r="K15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13">
       <c r="C16" s="1">
         <v>11</v>
       </c>
@@ -1541,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="F16" s="2">
         <v>1333</v>
@@ -1556,14 +1664,19 @@
       <c r="J16" s="1">
         <v>3</v>
       </c>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" ht="14.4" spans="3:11">
+      <c r="L16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
       <c r="C17" s="1">
         <v>12</v>
       </c>
       <c r="D17" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2">
         <v>250</v>
@@ -1572,7 +1685,7 @@
         <v>1333</v>
       </c>
       <c r="G17" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H17" s="2">
         <v>14</v>
@@ -1583,21 +1696,52 @@
       <c r="J17" s="1">
         <v>3</v>
       </c>
-      <c r="K17" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" ht="14.4" spans="3:11">
+      <c r="K17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11">
       <c r="C18" s="7"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" ht="14.4" spans="11:11">
-      <c r="K19" s="2"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="11:11">
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="11:11">
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="11:11">
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="11:11">
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="11:11">
+      <c r="K23" s="6"/>
     </row>
     <row r="24" spans="11:11">
-      <c r="K24" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="11:11">
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="11:11">
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="11:11">
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="11:11">
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="11:11">
+      <c r="K29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/ActiveSkillConfig@cs.xlsx
+++ b/Excel/ActiveSkillConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11775"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1177,7 +1177,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D24" sqref="D24"/>
+      <selection pane="topRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1320,10 +1320,10 @@
         <v>1333</v>
       </c>
       <c r="G6" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H6" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -1362,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>27</v>
@@ -1385,10 +1385,10 @@
         <v>1333</v>
       </c>
       <c r="G8" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H8" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -1420,10 +1420,10 @@
         <v>1333</v>
       </c>
       <c r="G9" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H9" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -1462,7 +1462,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>32</v>
@@ -1485,10 +1485,10 @@
         <v>1333</v>
       </c>
       <c r="G11" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H11" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -1520,16 +1520,16 @@
         <v>1333</v>
       </c>
       <c r="G12" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H12" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
       </c>
       <c r="J12" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>35</v>
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>27</v>
@@ -1585,16 +1585,16 @@
         <v>1333</v>
       </c>
       <c r="G14" s="6">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="H14" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>37</v>
@@ -1620,16 +1620,16 @@
         <v>1333</v>
       </c>
       <c r="G15" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H15" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
       </c>
       <c r="J15" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>39</v>
@@ -1662,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>32</v>
@@ -1685,16 +1685,16 @@
         <v>1333</v>
       </c>
       <c r="G17" s="6">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="H17" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
       </c>
       <c r="J17" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>41</v>

--- a/Excel/ActiveSkillConfig@cs.xlsx
+++ b/Excel/ActiveSkillConfig@cs.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>Id</t>
   </si>
@@ -62,6 +62,9 @@
     <t>是否大招</t>
   </si>
   <si>
+    <t>加buff</t>
+  </si>
+  <si>
     <t>SkillType</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
     <t>isSuper</t>
   </si>
   <si>
+    <t>addBuffs</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -104,6 +110,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>GameAssets/Chess/Effects/Arrow/Projectile 13 arrawY.prefab</t>
   </si>
   <si>
@@ -140,6 +149,12 @@
     <t>GameAssets/Chess/Effects/Arrow/Hit 13 R.prefab</t>
   </si>
   <si>
+    <t>1000,1003</t>
+  </si>
+  <si>
+    <t>1000,1006</t>
+  </si>
+  <si>
     <t>GameAssets/Chess/Effects/Parti/Projectile 2 leidian.prefab</t>
   </si>
   <si>
@@ -156,6 +171,9 @@
   </si>
   <si>
     <t>GameAssets/Chess/Effects/Parti/Hit 10.prefab</t>
+  </si>
+  <si>
+    <t>1008,1009</t>
   </si>
 </sst>
 </file>
@@ -168,7 +186,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,13 +361,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -806,9 +817,9 @@
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -823,6 +834,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1172,12 +1185,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:M29"/>
+  <dimension ref="C2:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G19" sqref="G19"/>
+      <selection pane="topRight" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1194,14 +1207,16 @@
     <col min="10" max="10" width="12.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="55.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="32.375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="13" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="9.125" style="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="17.1" customHeight="1" spans="7:8">
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="15.95" customHeight="1" spans="3:13">
+    <row r="3" ht="15.95" customHeight="1" spans="3:14">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1235,75 +1250,84 @@
       <c r="M3" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" ht="15" spans="3:13">
+      <c r="N3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="3:14">
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" ht="15" spans="3:13">
+        <v>21</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="3:14">
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="J5" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="3:13">
@@ -1332,10 +1356,10 @@
         <v>2</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1365,7 +1389,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1397,10 +1421,10 @@
         <v>2</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1432,10 +1456,10 @@
         <v>2</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1465,7 +1489,7 @@
         <v>10</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1497,16 +1521,16 @@
         <v>2</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:13">
+    <row r="12" spans="3:14">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -1532,16 +1556,19 @@
         <v>5</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="3:13">
+      <c r="N12" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14">
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -1565,13 +1592,16 @@
         <v>10</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="3:13">
+      <c r="N13" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -1597,16 +1627,19 @@
         <v>5</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="3:13">
+      <c r="N14" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -1632,16 +1665,19 @@
         <v>5</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="3:13">
+      <c r="N15" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14">
       <c r="C16" s="1">
         <v>11</v>
       </c>
@@ -1665,13 +1701,16 @@
         <v>10</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="3:13">
+      <c r="N16" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14">
       <c r="C17" s="1">
         <v>12</v>
       </c>
@@ -1697,13 +1736,16 @@
         <v>5</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M17" s="1">
         <v>1</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="3:11">

--- a/Excel/ActiveSkillConfig@cs.xlsx
+++ b/Excel/ActiveSkillConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="17310" windowHeight="5775"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -149,9 +149,6 @@
     <t>GameAssets/Chess/Effects/Arrow/Hit 13 R.prefab</t>
   </si>
   <si>
-    <t>1000,1003</t>
-  </si>
-  <si>
     <t>1000,1006</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>GameAssets/Chess/Effects/Parti/Hit 2.prefab</t>
+  </si>
+  <si>
+    <t>1000,1008</t>
   </si>
   <si>
     <t>GameAssets/Chess/Effects/Arrow/Projectile 13 arrawP.prefab</t>
@@ -1188,7 +1188,7 @@
   <dimension ref="C2:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="N19" sqref="N19"/>
     </sheetView>
@@ -1598,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="3:14">
@@ -1627,16 +1627,16 @@
         <v>5</v>
       </c>
       <c r="K14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="M14" s="1">
-        <v>1</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="3:14">
@@ -1674,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="3:14">
@@ -1707,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="3:14">

--- a/Excel/ActiveSkillConfig@cs.xlsx
+++ b/Excel/ActiveSkillConfig@cs.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>Id</t>
   </si>
@@ -149,6 +149,9 @@
     <t>GameAssets/Chess/Effects/Arrow/Hit 13 R.prefab</t>
   </si>
   <si>
+    <t>1000,1002</t>
+  </si>
+  <si>
     <t>1000,1006</t>
   </si>
   <si>
@@ -165,6 +168,9 @@
   </si>
   <si>
     <t>GameAssets/Chess/Effects/Arrow/Hit 13 P.prefab</t>
+  </si>
+  <si>
+    <t>1000,1001</t>
   </si>
   <si>
     <t>GameAssets/Chess/Effects/Parti/Projectile 10.prefab</t>
@@ -1188,9 +1194,9 @@
   <dimension ref="C2:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="N19" sqref="N19"/>
+      <selection pane="topRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1598,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="3:14">
@@ -1627,16 +1633,16 @@
         <v>5</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="3:14">
@@ -1665,16 +1671,16 @@
         <v>5</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M15" s="1">
         <v>1</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="3:14">
@@ -1707,7 +1713,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="3:14">
@@ -1736,16 +1742,16 @@
         <v>5</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M17" s="1">
         <v>1</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="3:11">

--- a/Excel/ActiveSkillConfig@cs.xlsx
+++ b/Excel/ActiveSkillConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17310" windowHeight="5775"/>
+    <workbookView windowWidth="26028" windowHeight="12684"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -149,19 +149,19 @@
     <t>GameAssets/Chess/Effects/Arrow/Hit 13 R.prefab</t>
   </si>
   <si>
-    <t>1000,1002</t>
-  </si>
-  <si>
     <t>1000,1006</t>
   </si>
   <si>
+    <t>1000,1008</t>
+  </si>
+  <si>
     <t>GameAssets/Chess/Effects/Parti/Projectile 2 leidian.prefab</t>
   </si>
   <si>
     <t>GameAssets/Chess/Effects/Parti/Hit 2.prefab</t>
   </si>
   <si>
-    <t>1000,1008</t>
+    <t>1000,1001</t>
   </si>
   <si>
     <t>GameAssets/Chess/Effects/Arrow/Projectile 13 arrawP.prefab</t>
@@ -170,7 +170,7 @@
     <t>GameAssets/Chess/Effects/Arrow/Hit 13 P.prefab</t>
   </si>
   <si>
-    <t>1000,1001</t>
+    <t>1000,1009</t>
   </si>
   <si>
     <t>GameAssets/Chess/Effects/Parti/Projectile 10.prefab</t>
@@ -179,7 +179,7 @@
     <t>GameAssets/Chess/Effects/Parti/Hit 10.prefab</t>
   </si>
   <si>
-    <t>1008,1009</t>
+    <t>1002,1003</t>
   </si>
 </sst>
 </file>
@@ -1194,27 +1194,27 @@
   <dimension ref="C2:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O5" sqref="O5"/>
+      <selection pane="topRight" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.87962962962963" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.1481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.8796296296296" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.8796296296296" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.8796296296296" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1296296296296" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="55.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="32.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="55.6296296296296" style="1" customWidth="1"/>
+    <col min="12" max="12" width="32.3796296296296" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="9.125" style="1"/>
+    <col min="14" max="14" width="9.12962962962963" style="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1260,7 +1260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="3:14">
+    <row r="4" ht="16.2" spans="3:14">
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="3:14">
+    <row r="5" ht="16.2" spans="3:14">
       <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="3:13">
+    <row r="6" ht="14.4" spans="3:13">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>1333</v>
       </c>
       <c r="G6" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" s="2">
         <v>20</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:13">
+    <row r="7" ht="14.4" spans="3:13">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:13">
+    <row r="8" ht="14.4" spans="3:13">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>1333</v>
       </c>
       <c r="G8" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H8" s="2">
         <v>25</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:13">
+    <row r="9" ht="14.4" spans="3:13">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>1333</v>
       </c>
       <c r="G9" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" s="2">
         <v>20</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:13">
+    <row r="10" ht="14.4" spans="3:13">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:13">
+    <row r="11" ht="14.4" spans="3:13">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>1333</v>
       </c>
       <c r="G11" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H11" s="2">
         <v>25</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:14">
+    <row r="12" ht="14.4" spans="3:14">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>1333</v>
       </c>
       <c r="G12" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" s="2">
         <v>20</v>
@@ -1574,7 +1574,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="3:14">
+    <row r="13" ht="14.4" spans="3:14">
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="3:14">
+    <row r="14" ht="14.4" spans="3:14">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="3:14">
+    <row r="15" ht="14.4" spans="3:14">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>1333</v>
       </c>
       <c r="G15" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" s="2">
         <v>20</v>
@@ -1680,10 +1680,10 @@
         <v>1</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="3:14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" ht="14.4" spans="3:14">
       <c r="C16" s="1">
         <v>11</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" ht="14.4" spans="3:14">
       <c r="C17" s="1">
         <v>12</v>
       </c>

--- a/Excel/ActiveSkillConfig@cs.xlsx
+++ b/Excel/ActiveSkillConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26028" windowHeight="12684"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>Id</t>
   </si>
@@ -65,6 +65,9 @@
     <t>加buff</t>
   </si>
   <si>
+    <t>伤害类型 1 物理 2 法术 3 治疗</t>
+  </si>
+  <si>
     <t>SkillType</t>
   </si>
   <si>
@@ -98,6 +101,9 @@
     <t>addBuffs</t>
   </si>
   <si>
+    <t>damageType</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -161,7 +167,7 @@
     <t>GameAssets/Chess/Effects/Parti/Hit 2.prefab</t>
   </si>
   <si>
-    <t>1000,1001</t>
+    <t>1009,1008</t>
   </si>
   <si>
     <t>GameAssets/Chess/Effects/Arrow/Projectile 13 arrawP.prefab</t>
@@ -1191,38 +1197,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:N29"/>
+  <dimension ref="C2:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M23" sqref="M23"/>
+      <selection pane="topRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.87962962962963" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.1481481481481" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.15" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.8796296296296" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.8796296296296" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.8796296296296" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1296296296296" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.8833333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.8833333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.8833333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1333333333333" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="55.6296296296296" style="1" customWidth="1"/>
-    <col min="12" max="12" width="32.3796296296296" style="1" customWidth="1"/>
+    <col min="11" max="11" width="55.6333333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="32.3833333333333" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="9.12962962962963" style="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="14" max="14" width="9.13333333333333" style="1"/>
+    <col min="15" max="15" width="22.05" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="17.1" customHeight="1" spans="7:8">
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="15.95" customHeight="1" spans="3:14">
+    <row r="3" ht="15.95" customHeight="1" spans="3:15">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1259,84 +1266,93 @@
       <c r="N3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" ht="16.2" spans="3:14">
+      <c r="O3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="3:15">
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" ht="16.2" spans="3:14">
+        <v>23</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="3:15">
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="J5" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" ht="14.4" spans="3:13">
+        <v>29</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1362,16 +1378,19 @@
         <v>2</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" ht="14.4" spans="3:13">
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1395,13 +1414,16 @@
         <v>10</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" ht="14.4" spans="3:13">
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1427,16 +1449,19 @@
         <v>2</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" ht="14.4" spans="3:13">
+      <c r="O8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1462,16 +1487,19 @@
         <v>2</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" ht="14.4" spans="3:13">
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1495,13 +1523,16 @@
         <v>10</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" ht="14.4" spans="3:13">
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1527,16 +1558,19 @@
         <v>2</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" ht="14.4" spans="3:14">
+      <c r="O11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -1556,25 +1590,28 @@
         <v>20</v>
       </c>
       <c r="I12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1">
         <v>5</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" ht="14.4" spans="3:14">
+        <v>42</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15">
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -1592,27 +1629,30 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1">
         <v>10</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M13" s="1">
         <v>1</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" ht="14.4" spans="3:14">
+        <v>43</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15">
       <c r="C14" s="1">
         <v>9</v>
       </c>
       <c r="D14" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2">
         <v>250</v>
@@ -1621,31 +1661,34 @@
         <v>1333</v>
       </c>
       <c r="G14" s="6">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H14" s="2">
         <v>25</v>
       </c>
       <c r="I14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1">
         <v>5</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" ht="14.4" spans="3:14">
+        <v>46</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -1665,25 +1708,28 @@
         <v>20</v>
       </c>
       <c r="I15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1">
         <v>5</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M15" s="1">
         <v>1</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" ht="14.4" spans="3:14">
+        <v>42</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15">
       <c r="C16" s="1">
         <v>11</v>
       </c>
@@ -1701,22 +1747,25 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1">
         <v>10</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M16" s="1">
         <v>1</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" ht="14.4" spans="3:14">
+        <v>49</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14">
       <c r="C17" s="1">
         <v>12</v>
       </c>
@@ -1736,22 +1785,22 @@
         <v>25</v>
       </c>
       <c r="I17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" s="1">
         <v>5</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M17" s="1">
         <v>1</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="3:11">
